--- a/untranslated/downloads/data-excel/3.1.2.xlsx
+++ b/untranslated/downloads/data-excel/3.1.2.xlsx
@@ -704,9 +704,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -717,7 +719,7 @@
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>37</v>
       </c>
@@ -739,7 +741,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>30</v>
       </c>
@@ -761,7 +763,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="13"/>
       <c r="C3" s="12"/>
@@ -777,7 +779,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -826,8 +828,11 @@
       <c r="P4" s="26">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="26">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -876,8 +881,11 @@
       <c r="P5" s="37">
         <v>99.348833116487214</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="37">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -926,8 +934,11 @@
       <c r="P6" s="38">
         <v>99.335613735034855</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="38">
+        <v>99.371420589467803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -976,8 +987,11 @@
       <c r="P7" s="38">
         <v>99.331319371372317</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="38">
+        <v>99.319469393395053</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="P8" s="38">
         <v>99.485976086713606</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="38">
+        <v>99.442213297634979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1076,8 +1093,11 @@
       <c r="P9" s="38">
         <v>99.123343527013262</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="38">
+        <v>98.766881972988841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="P10" s="38">
         <v>99.216846501914375</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="38">
+        <v>99.212798374809537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
@@ -1176,8 +1199,11 @@
       <c r="P11" s="38">
         <v>99.610750695088043</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="38">
+        <v>99.799160124155549</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
@@ -1226,8 +1252,11 @@
       <c r="P12" s="38">
         <v>99.366992454550058</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="38">
+        <v>99.146991622239156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
@@ -1276,8 +1305,11 @@
       <c r="P13" s="38">
         <v>99.478079331941544</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="38">
+        <v>99.538370126605429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>28</v>
       </c>
@@ -1326,8 +1358,11 @@
       <c r="P14" s="39">
         <v>99.537117903930124</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14" s="39">
+        <v>99.765563948945029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O15" s="33"/>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/3.1.2.xlsx
+++ b/untranslated/downloads/data-excel/3.1.2.xlsx
@@ -704,10 +704,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +719,7 @@
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>37</v>
       </c>
@@ -741,7 +741,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>30</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="13"/>
       <c r="C3" s="12"/>
@@ -779,7 +779,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -831,8 +831,11 @@
       <c r="Q4" s="26">
         <v>2020</v>
       </c>
+      <c r="R4" s="26">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -884,8 +887,11 @@
       <c r="Q5" s="37">
         <v>99.3</v>
       </c>
+      <c r="R5" s="37">
+        <v>99.4</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -937,8 +943,11 @@
       <c r="Q6" s="38">
         <v>99.371420589467803</v>
       </c>
+      <c r="R6" s="38">
+        <v>98.1</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -990,8 +999,11 @@
       <c r="Q7" s="38">
         <v>99.319469393395053</v>
       </c>
+      <c r="R7" s="38">
+        <v>99.319469393395053</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -1043,8 +1055,11 @@
       <c r="Q8" s="38">
         <v>99.442213297634979</v>
       </c>
+      <c r="R8" s="38">
+        <v>99.442213297634979</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1096,8 +1111,11 @@
       <c r="Q9" s="38">
         <v>98.766881972988841</v>
       </c>
+      <c r="R9" s="38">
+        <v>99.1</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1149,8 +1167,11 @@
       <c r="Q10" s="38">
         <v>99.212798374809537</v>
       </c>
+      <c r="R10" s="38">
+        <v>99.3</v>
+      </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
@@ -1202,8 +1223,11 @@
       <c r="Q11" s="38">
         <v>99.799160124155549</v>
       </c>
+      <c r="R11" s="38">
+        <v>99.799160124155549</v>
+      </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
@@ -1255,8 +1279,11 @@
       <c r="Q12" s="38">
         <v>99.146991622239156</v>
       </c>
+      <c r="R12" s="38">
+        <v>99.3</v>
+      </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
@@ -1308,8 +1335,11 @@
       <c r="Q13" s="38">
         <v>99.538370126605429</v>
       </c>
+      <c r="R13" s="38">
+        <v>99.538370126605429</v>
+      </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>28</v>
       </c>
@@ -1361,8 +1391,11 @@
       <c r="Q14" s="39">
         <v>99.765563948945029</v>
       </c>
+      <c r="R14" s="39">
+        <v>99.765563948945029</v>
+      </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O15" s="33"/>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/3.1.2.xlsx
+++ b/untranslated/downloads/data-excel/3.1.2.xlsx
@@ -704,10 +704,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,7 +719,7 @@
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>37</v>
       </c>
@@ -741,7 +741,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>30</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="13"/>
       <c r="C3" s="12"/>
@@ -779,7 +779,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -834,8 +834,11 @@
       <c r="R4" s="26">
         <v>2021</v>
       </c>
+      <c r="S4" s="26">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -890,8 +893,11 @@
       <c r="R5" s="37">
         <v>99.4</v>
       </c>
+      <c r="S5" s="37">
+        <v>99.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -946,8 +952,11 @@
       <c r="R6" s="38">
         <v>98.1</v>
       </c>
+      <c r="S6" s="38">
+        <v>99.358544044156048</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1002,8 +1011,11 @@
       <c r="R7" s="38">
         <v>99.319469393395053</v>
       </c>
+      <c r="S7" s="38">
+        <v>99.400057479522914</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -1058,8 +1070,11 @@
       <c r="R8" s="38">
         <v>99.442213297634979</v>
       </c>
+      <c r="S8" s="38">
+        <v>99.513194978221875</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1114,8 +1129,11 @@
       <c r="R9" s="38">
         <v>99.1</v>
       </c>
+      <c r="S9" s="38">
+        <v>99.232429839290006</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1170,8 +1188,11 @@
       <c r="R10" s="38">
         <v>99.3</v>
       </c>
+      <c r="S10" s="38">
+        <v>99.453093666824671</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
@@ -1226,8 +1247,11 @@
       <c r="R11" s="38">
         <v>99.799160124155549</v>
       </c>
+      <c r="S11" s="38">
+        <v>99.686258104998956</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
@@ -1282,8 +1306,11 @@
       <c r="R12" s="38">
         <v>99.3</v>
       </c>
+      <c r="S12" s="38">
+        <v>99.42525365081228</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
@@ -1338,8 +1365,11 @@
       <c r="R13" s="38">
         <v>99.538370126605429</v>
       </c>
+      <c r="S13" s="38">
+        <v>99.561275226674468</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>28</v>
       </c>
@@ -1394,8 +1424,11 @@
       <c r="R14" s="39">
         <v>99.765563948945029</v>
       </c>
+      <c r="S14" s="39">
+        <v>99.831561216970215</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O15" s="33"/>
     </row>
   </sheetData>

--- a/untranslated/downloads/data-excel/3.1.2.xlsx
+++ b/untranslated/downloads/data-excel/3.1.2.xlsx
@@ -704,11 +704,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -719,7 +717,7 @@
     <col min="5" max="5" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>37</v>
       </c>
@@ -741,7 +739,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>30</v>
       </c>
@@ -763,7 +761,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16"/>
       <c r="B3" s="13"/>
       <c r="C3" s="12"/>
@@ -779,7 +777,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
@@ -837,8 +835,11 @@
       <c r="S4" s="26">
         <v>2022</v>
       </c>
+      <c r="T4" s="26">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
@@ -896,8 +897,11 @@
       <c r="S5" s="37">
         <v>99.5</v>
       </c>
+      <c r="T5" s="37">
+        <v>99.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -955,8 +959,11 @@
       <c r="S6" s="38">
         <v>99.358544044156048</v>
       </c>
+      <c r="T6" s="38">
+        <v>99.426175237254469</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1014,8 +1021,11 @@
       <c r="S7" s="38">
         <v>99.400057479522914</v>
       </c>
+      <c r="T7" s="38">
+        <v>99.458151211935132</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -1073,8 +1083,11 @@
       <c r="S8" s="38">
         <v>99.513194978221875</v>
       </c>
+      <c r="T8" s="38">
+        <v>99.44178628389156</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1132,8 +1145,11 @@
       <c r="S9" s="38">
         <v>99.232429839290006</v>
       </c>
+      <c r="T9" s="38">
+        <v>99.453125</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
@@ -1191,8 +1207,11 @@
       <c r="S10" s="38">
         <v>99.453093666824671</v>
       </c>
+      <c r="T10" s="38">
+        <v>99.487295483676391</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>21</v>
       </c>
@@ -1250,8 +1269,11 @@
       <c r="S11" s="38">
         <v>99.686258104998956</v>
       </c>
+      <c r="T11" s="38">
+        <v>99.743589743589752</v>
+      </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>23</v>
       </c>
@@ -1309,8 +1331,11 @@
       <c r="S12" s="38">
         <v>99.42525365081228</v>
       </c>
+      <c r="T12" s="38">
+        <v>99.190647482014398</v>
+      </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
@@ -1368,8 +1393,11 @@
       <c r="S13" s="38">
         <v>99.561275226674468</v>
       </c>
+      <c r="T13" s="38">
+        <v>99.483321247280642</v>
+      </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>28</v>
       </c>
@@ -1427,8 +1455,11 @@
       <c r="S14" s="39">
         <v>99.831561216970215</v>
       </c>
+      <c r="T14" s="39">
+        <v>99.771121504627331</v>
+      </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="O15" s="33"/>
     </row>
   </sheetData>
